--- a/biology/Botanique/Osteiner/Osteiner.xlsx
+++ b/biology/Botanique/Osteiner/Osteiner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'osteiner est un cépage de cuve allemand de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention de Heinrich Birk dans l'institut Institut für Rebenzüchtung und Rebenveredlung der Hessischen Forschungsanstalt für Weinbau, Gartenbau, Getränketechnologie und Landespflege à Geisenheim (Forschungsanstalt Geisenheim). L'origine génétique est vérifiée et c'est un croisement des cépages riesling x sylvaner réalisé en 1929. Le cépage est autorisé dans de nombreux Länder en Allemagne ou il ne couvre que 4 à 5 hectares. 
 Il est un peu cultivé en Nouvelle-Zélande.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, blanc à liseré carminé.
 Jeunes feuilles duveteuses, jaunâtres.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque hâtive: 10 jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne. La grappe est conique et compacte. Le cépage donne un vin blanc sec et fruité mais à acidité très élevée.
 </t>
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'  osteiner est connu sous le nom de Gm 9-97
 </t>
